--- a/MAPPING/trunk/org.openl.rules.mapping.dev.test/src/test/resources/org/openl/rules/mapping/multisource/MultiSourceFieldTest2.xlsx
+++ b/MAPPING/trunk/org.openl.rules.mapping.dev.test/src/test/resources/org/openl/rules/mapping/multisource/MultiSourceFieldTest2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>classA</t>
   </si>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -255,6 +255,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,13 +557,13 @@
   <dimension ref="C7:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G19" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -660,7 +663,7 @@
       <c r="C18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E18" t="s">
@@ -679,9 +682,7 @@
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="15"/>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
+      <c r="D19" s="16"/>
       <c r="E19" t="s">
         <v>24</v>
       </c>
@@ -692,9 +693,7 @@
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="15"/>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
+      <c r="D20" s="16"/>
       <c r="E20" t="s">
         <v>23</v>
       </c>
@@ -703,7 +702,7 @@
       <c r="I20" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="C15:I15"/>
@@ -711,6 +710,7 @@
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="I18:I20"/>
+    <mergeCell ref="D18:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
